--- a/MMORPG-Demo/MMOServer/src/main/resources/static/skills.xlsx
+++ b/MMORPG-Demo/MMOServer/src/main/resources/static/skills.xlsx
@@ -5,27 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MMORPG-Demo\MMOServer\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D7C61-796B-4AA0-89DA-461DC738E73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF940B9-522A-468B-AD9B-F4A46818E3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="4404" windowWidth="21540" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +73,14 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillDamagePercent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -406,9 +420,11 @@
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +443,14 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -442,13 +464,19 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -462,13 +490,19 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -482,13 +516,19 @@
         <v>70</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -502,13 +542,19 @@
         <v>150</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -522,10 +568,16 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F6">
         <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
